--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -8,20 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vexrina\Desktop\projects\NewCatalog\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFA6766-46B1-49E0-AA90-24132CA950FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A634570C-941D-4C36-AF51-9961B3116072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="AMD" sheetId="2" r:id="rId1"/>
-    <sheet name="Intel" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="AMDCPU" sheetId="2" r:id="rId2"/>
+    <sheet name="Intel" sheetId="3" r:id="rId3"/>
+    <sheet name="AMDGpu" sheetId="4" r:id="rId4"/>
+    <sheet name="IntelGpu" sheetId="5" r:id="rId5"/>
+    <sheet name="Nvidia" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="138">
   <si>
     <t>Брэнд</t>
   </si>
@@ -56,9 +60,6 @@
     <t>Максимальная температура</t>
   </si>
   <si>
-    <t>Максимальный объем памяти</t>
-  </si>
-  <si>
     <t>Тип памяти</t>
   </si>
   <si>
@@ -80,12 +81,63 @@
     <t>AMD</t>
   </si>
   <si>
+    <t>5800X</t>
+  </si>
+  <si>
+    <t>SocketAM4</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>3.8 ГГц и 4.7 ГГц в режиме Turbo</t>
+  </si>
+  <si>
+    <t>32 МБ</t>
+  </si>
+  <si>
+    <t>7 нм</t>
+  </si>
+  <si>
+    <t>разблокированный</t>
+  </si>
+  <si>
+    <t>105 Вт</t>
+  </si>
+  <si>
+    <t>90 °С</t>
+  </si>
+  <si>
+    <t>DDR4</t>
+  </si>
+  <si>
+    <t>3200 МГц</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>отсутствует</t>
+  </si>
+  <si>
+    <t>3700X</t>
+  </si>
+  <si>
+    <t>3.6 ГГц и 4.4 ГГц в режиме Turbo</t>
+  </si>
+  <si>
+    <t>65 Вт</t>
+  </si>
+  <si>
+    <t>95 °С</t>
+  </si>
+  <si>
     <t>5600G</t>
   </si>
   <si>
-    <t>SocketAM4</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -98,30 +150,6 @@
     <t>16 МБ</t>
   </si>
   <si>
-    <t>7 нм</t>
-  </si>
-  <si>
-    <t>разблокированный</t>
-  </si>
-  <si>
-    <t>65 Вт</t>
-  </si>
-  <si>
-    <t>95 °С</t>
-  </si>
-  <si>
-    <t>128 ГБ</t>
-  </si>
-  <si>
-    <t>DDR4</t>
-  </si>
-  <si>
-    <t>3200 МГц</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>есть</t>
   </si>
   <si>
@@ -131,48 +159,6 @@
     <t>1900 МГц</t>
   </si>
   <si>
-    <t>3700X</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>3.6 ГГц и 4.4 ГГц в режиме Turbo</t>
-  </si>
-  <si>
-    <t>32 МБ</t>
-  </si>
-  <si>
-    <t>отсутствует</t>
-  </si>
-  <si>
-    <t>5800X</t>
-  </si>
-  <si>
-    <t>3.8 ГГц и 4.7 ГГц в режиме Turbo</t>
-  </si>
-  <si>
-    <t>105 Вт</t>
-  </si>
-  <si>
-    <t>90 °С</t>
-  </si>
-  <si>
-    <t>Пропускная способность шины (GT/s)</t>
-  </si>
-  <si>
-    <t>Пропускная способность памяти</t>
-  </si>
-  <si>
-    <t>Конфигурация PCI Express</t>
-  </si>
-  <si>
-    <t>Максимальный объем видеопамяти</t>
-  </si>
-  <si>
     <t>INTEL</t>
   </si>
   <si>
@@ -206,32 +192,271 @@
     <t>2666 МГц</t>
   </si>
   <si>
-    <t>41.6 GB/s</t>
-  </si>
-  <si>
-    <t>1x16, 2x8, 1x8+2x4</t>
-  </si>
-  <si>
     <t>Intel UHD Graphics 610</t>
   </si>
   <si>
     <t>350 МГц и 1050 МГц Turbo</t>
   </si>
   <si>
-    <t>64 ГБ</t>
+    <t>11400F</t>
+  </si>
+  <si>
+    <t>2.6 ГГц и 4.4 ГГц в режиме Turbo</t>
+  </si>
+  <si>
+    <t>12 МБ</t>
+  </si>
+  <si>
+    <t>12400F</t>
+  </si>
+  <si>
+    <t>LGA 1700</t>
+  </si>
+  <si>
+    <t>2.5 ГГц и 4.4 ГГц в режиме Turbo</t>
+  </si>
+  <si>
+    <t>18 МБ</t>
+  </si>
+  <si>
+    <t>10 нм</t>
+  </si>
+  <si>
+    <t>DDR5/ DDR4</t>
+  </si>
+  <si>
+    <t>DDR5 4800 МГц; DDR4 3200 МГц</t>
+  </si>
+  <si>
+    <t>Видеочипсет</t>
+  </si>
+  <si>
+    <t>Частота графического процессора</t>
+  </si>
+  <si>
+    <t>Техпроцесс</t>
+  </si>
+  <si>
+    <t>Объем видеопамяти</t>
+  </si>
+  <si>
+    <t>Тип видеопамяти</t>
+  </si>
+  <si>
+    <t>Частота видеопамяти</t>
+  </si>
+  <si>
+    <t>Максимальное разрешение</t>
+  </si>
+  <si>
+    <t>Технологии</t>
+  </si>
+  <si>
+    <t>Поддержка трассировки лучей</t>
+  </si>
+  <si>
+    <t>Разъемов HDMI</t>
+  </si>
+  <si>
+    <t>Разъемов Display Port</t>
+  </si>
+  <si>
+    <t>Количество поддерживаемых мониторов</t>
+  </si>
+  <si>
+    <t>Разъемы дополнительного питания</t>
+  </si>
+  <si>
+    <t>Рекомендуемая производителем мощность БП</t>
+  </si>
+  <si>
+    <t>Система охлаждения</t>
+  </si>
+  <si>
+    <t>Длина видеокарты</t>
+  </si>
+  <si>
+    <t>Высота видеокарты</t>
+  </si>
+  <si>
+    <t>GIGABYTE</t>
+  </si>
+  <si>
+    <t>GV-R665XTGAMING OC-8GD</t>
+  </si>
+  <si>
+    <t>AMD  Radeon RX 6650XT</t>
+  </si>
+  <si>
+    <t>2523 МГц (2694 МГц, в режиме Boost)</t>
+  </si>
+  <si>
+    <t>8 ГБ</t>
+  </si>
+  <si>
+    <t>GDDR6</t>
+  </si>
+  <si>
+    <t>17500 МГц</t>
+  </si>
+  <si>
+    <t>7680 х 4320</t>
+  </si>
+  <si>
+    <t>DirectX 12 Ultimate/OpenGL 4.6</t>
+  </si>
+  <si>
+    <t>8 pin</t>
+  </si>
+  <si>
+    <t>500 Вт</t>
+  </si>
+  <si>
+    <t>активное (радиатор и три вентилятора)</t>
+  </si>
+  <si>
+    <t>282 мм</t>
+  </si>
+  <si>
+    <t>115 мм</t>
+  </si>
+  <si>
+    <t>GV-R665XTEAGLE-8GD</t>
+  </si>
+  <si>
+    <t>2410 МГц (2635 МГц, в режиме Boost)</t>
+  </si>
+  <si>
+    <t>113 мм</t>
+  </si>
+  <si>
+    <t>Максимальное энергопотребление</t>
+  </si>
+  <si>
+    <t>GV-IA380GAMING OC-6GD</t>
+  </si>
+  <si>
+    <t>INTEL  ARC A380</t>
+  </si>
+  <si>
+    <t>2450 МГц</t>
+  </si>
+  <si>
+    <t>6 нм</t>
+  </si>
+  <si>
+    <t>6 ГБ</t>
+  </si>
+  <si>
+    <t>15500 МГц</t>
+  </si>
+  <si>
+    <t>DirectX 12/OpenGL 4.6</t>
+  </si>
+  <si>
+    <t>6 pin</t>
+  </si>
+  <si>
+    <t>350 Вт</t>
+  </si>
+  <si>
+    <t>280 мм</t>
+  </si>
+  <si>
+    <t>GV-IA380WF2OC-6GD</t>
+  </si>
+  <si>
+    <t>2350 МГц</t>
+  </si>
+  <si>
+    <t>55 Вт</t>
+  </si>
+  <si>
+    <t>активное (радиатор и два вентилятора)</t>
+  </si>
+  <si>
+    <t>192 мм</t>
+  </si>
+  <si>
+    <t>Поддержка DLSS</t>
+  </si>
+  <si>
+    <t>Разъемы DVI</t>
+  </si>
+  <si>
+    <t>PALIT</t>
+  </si>
+  <si>
+    <t>PA-RTX2060SUPER DUAL 8G no LED</t>
+  </si>
+  <si>
+    <t>NVIDIA  GeForce RTX 2060SUPER</t>
+  </si>
+  <si>
+    <t>1470 МГц (1650 МГц, в режиме Boost)</t>
+  </si>
+  <si>
+    <t>12 нм</t>
+  </si>
+  <si>
+    <t>14000 МГц</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>175 Вт</t>
+  </si>
+  <si>
+    <t>550 Вт</t>
+  </si>
+  <si>
+    <t>235 мм</t>
+  </si>
+  <si>
+    <t>112 мм</t>
+  </si>
+  <si>
+    <t>PA-RTX3050 DUAL</t>
+  </si>
+  <si>
+    <t>NVIDIA  GeForce RTX 3050</t>
+  </si>
+  <si>
+    <t>1552 МГц (1777 МГц, в режиме Boost)</t>
+  </si>
+  <si>
+    <t>8 нм</t>
+  </si>
+  <si>
+    <t>140 Вт</t>
+  </si>
+  <si>
+    <t>245 мм</t>
+  </si>
+  <si>
+    <t>119 мм</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -247,7 +472,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -270,13 +495,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -558,14 +801,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -600,175 +855,169 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>17</v>
       </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" t="s">
         <v>42</v>
       </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="Q4" t="s">
         <v>43</v>
-      </c>
-      <c r="G2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>34</v>
-      </c>
-      <c r="R4" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -776,15 +1025,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -813,111 +1062,757 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
         <v>47</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="F2" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="G2" t="s">
         <v>49</v>
+      </c>
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S33" sqref="S33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>95</v>
+      </c>
+      <c r="R2" t="s">
+        <v>96</v>
+      </c>
+      <c r="S2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" t="s">
+        <v>93</v>
+      </c>
+      <c r="P3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>95</v>
+      </c>
+      <c r="R3" t="s">
+        <v>96</v>
+      </c>
+      <c r="S3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:Q3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="A3:Q5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>110</v>
+      </c>
+      <c r="P2" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
+        <v>109</v>
+      </c>
+      <c r="N3" t="s">
+        <v>114</v>
+      </c>
+      <c r="O3" t="s">
+        <v>110</v>
+      </c>
+      <c r="P3" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:V3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA14" sqref="AA14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="J2" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="L2" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="M2" t="s">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="N2" t="s">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="O2" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="P2" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="Q2" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="R2" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="S2" t="s">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="T2" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="U2" t="s">
-        <v>64</v>
-      </c>
-      <c r="V2" t="s">
-        <v>65</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" t="s">
+        <v>125</v>
+      </c>
+      <c r="N3" t="s">
+        <v>126</v>
+      </c>
+      <c r="O3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>135</v>
+      </c>
+      <c r="R3" t="s">
+        <v>128</v>
+      </c>
+      <c r="S3" t="s">
+        <v>115</v>
+      </c>
+      <c r="T3" t="s">
+        <v>136</v>
+      </c>
+      <c r="U3" t="s">
+        <v>137</v>
+      </c>
+      <c r="V3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,6 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMDGpu" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IntelGpu" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nvidia" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RAM" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="storage" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -21,13 +23,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -51,12 +63,42 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -99,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -108,6 +150,12 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1487,8 +1535,8 @@
   </sheetPr>
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="A3:Q5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -2105,4 +2153,526 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="16.7109375" customWidth="1" min="6" max="6"/>
+    <col width="26.7109375" customWidth="1" min="7" max="7"/>
+    <col width="22.7109375" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>Брэнд</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Модель</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>Форм-фактор</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Тип памяти</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Количество модулей</t>
+        </is>
+      </c>
+      <c r="F1" s="4" t="inlineStr">
+        <is>
+          <t>Объем модуля</t>
+        </is>
+      </c>
+      <c r="G1" s="4" t="inlineStr">
+        <is>
+          <t>Количество контактов</t>
+        </is>
+      </c>
+      <c r="H1" s="4" t="inlineStr">
+        <is>
+          <t>Режим работы</t>
+        </is>
+      </c>
+      <c r="I1" s="4" t="inlineStr">
+        <is>
+          <t>Скорость</t>
+        </is>
+      </c>
+      <c r="J1" s="4" t="inlineStr">
+        <is>
+          <t>Напряжение</t>
+        </is>
+      </c>
+      <c r="K1" s="4" t="inlineStr">
+        <is>
+          <t>Задержка</t>
+        </is>
+      </c>
+      <c r="L1" s="4" t="inlineStr">
+        <is>
+          <t>Латентность</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>KINGSTON</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>KF432C16BBK2/16</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>DIMM</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>DDR4</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8 ГБ</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>288-pin</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>двухканальный</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>3200МГц</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>1.35В</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>16-18-18</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>CL16</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>KINGSTON</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>KF552C40BBK2-32</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DIMM</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>DDR5</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>16 ГБ</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>288-pin</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>5200МГц</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>1.25В</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>40-40-40</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>CL40</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PATRIOT</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>PSD38G16002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>DIMM</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>DDR3</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8 ГБ</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>240-pin</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1600МГц</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>1.5В</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>11-11-11</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>CL11</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:U3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>Брэнд</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>Модель</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>Тип жесткого диска</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>Объем накопителя</t>
+        </is>
+      </c>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
+          <t>Форм-фактор</t>
+        </is>
+      </c>
+      <c r="F1" s="5" t="inlineStr">
+        <is>
+          <t>Интерфейс</t>
+        </is>
+      </c>
+      <c r="G1" s="5" t="inlineStr">
+        <is>
+          <t>Тип памяти NAND</t>
+        </is>
+      </c>
+      <c r="H1" s="5" t="inlineStr">
+        <is>
+          <t>Максимальная скорость чтения</t>
+        </is>
+      </c>
+      <c r="I1" s="5" t="inlineStr">
+        <is>
+          <t>Максимальная скорость записи</t>
+        </is>
+      </c>
+      <c r="J1" s="5" t="inlineStr">
+        <is>
+          <t>Ресурс TBW</t>
+        </is>
+      </c>
+      <c r="K1" s="5" t="inlineStr">
+        <is>
+          <t>Время наработки на отказ</t>
+        </is>
+      </c>
+      <c r="L1" s="5" t="inlineStr">
+        <is>
+          <t>Энергопотребление</t>
+        </is>
+      </c>
+      <c r="M1" s="5" t="inlineStr">
+        <is>
+          <t>1.535 Вт</t>
+        </is>
+      </c>
+      <c r="N1" s="5" t="inlineStr">
+        <is>
+          <t>0.279 Вт</t>
+        </is>
+      </c>
+      <c r="O1" s="5" t="inlineStr">
+        <is>
+          <t>Буферная память</t>
+        </is>
+      </c>
+      <c r="P1" s="5" t="inlineStr">
+        <is>
+          <t>Скорость вращения шпинделя</t>
+        </is>
+      </c>
+      <c r="Q1" s="5" t="inlineStr">
+        <is>
+          <t>Максимальная скорость интерфейса</t>
+        </is>
+      </c>
+      <c r="R1" s="5" t="inlineStr">
+        <is>
+          <t>Средняя латентность</t>
+        </is>
+      </c>
+      <c r="S1" s="5" t="inlineStr">
+        <is>
+          <t>Потребляемая мощность</t>
+        </is>
+      </c>
+      <c r="T1" s="5" t="inlineStr">
+        <is>
+          <t>Мощность в режиме ожидания</t>
+        </is>
+      </c>
+      <c r="U1" s="5" t="inlineStr">
+        <is>
+          <t>Уровень шума работы</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>KINGSTON</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>SA400S37/480G</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SSD</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>480 ГБ</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2.5"</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>SATA III</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3D NAND</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>500 МБ/с</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>450 МБ/с</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>160 ТБ</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>1000000 ч</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Потребляемая мощность</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Потребляемая мощность в режиме ожидания</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Толщина</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>WD</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>WD10EZEX</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>HDD</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1 ТБ</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3.5 "</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>SATA III</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>64 МБ</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>7200 об/мин</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>600 МБ/с</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>4.2 мс</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>6.8 Вт</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>6.1 Вт</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>30 дБ</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,9 +12,11 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cpus" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gpus" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="rams" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="motherboards" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="power_units" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -66,7 +68,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -425,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,6 +546,21 @@
           <t>Цвет подсветки</t>
         </is>
       </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Срок службы вентилятора</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Предназначено для корпуса</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Количество светодиодов подсветки</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -838,6 +855,88 @@
       <c r="R4" t="inlineStr">
         <is>
           <t>60.5 мм</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AEROCOOL</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Frost 12 PWM</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>активное воздушное</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>120 мм</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>18 - 28 дБ</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>500 - 1500 об/мин</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>4-pin</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>12 В</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0.28 A</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>3.36 Вт</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>многоцветная</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>40000 ч</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>да</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -852,7 +951,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:AB7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -878,149 +977,569 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Объем накопителя</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Форм-фактор</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Объем накопителя</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Интерфейс</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Тип памяти NAND</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Максимальная скорость чтения</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Максимальная скорость записи</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Ресурс TBW</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Время наработки на отказ</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Потребляемая мощность</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Потребляемая мощность в режиме ожидания</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>Буферная память</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Скорость вращения шпинделя</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Интерфейс</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Максимальная скорость интерфейса</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Средняя латентность</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Потребляемая мощность</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Мощность в режиме ожидания</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Уровень шума работы</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Упаковка</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>0.49 кг</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Гарантия</t>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>4096 байт на сектор; рабочая нагрузка - 55 ТБ в год, 2400 часов в год (круглосуточно);</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>147 мм</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>20.2 мм</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>415 грамм</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>0.56 кг</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Скорость произвольного чтения (4KB) (IOPS)</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Скорость произвольной записи (4KB) (IOPS)</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Поддержка NVMe</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Максимальное количество циклов перезаписи в день (DWPD)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>KINGSTON</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>SA400S37/480G</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SSD</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>480 ГБ</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2.5"</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>SATA III</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3D NAND</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>500 МБ/с</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>450 МБ/с</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>160 ТБ</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>1000000 ч</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>1.535 Вт</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0.279 Вт</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>WD</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>WD10EZEX</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>HDD</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1 ТБ</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>3.5 "</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>SATA III</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>6.8 Вт</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>64 МБ</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>7200 об/мин</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>600 МБ/с</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>4.2 мс</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>6.1 Вт</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>30 дБ</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SEAGATE</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ST2000DM008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>HDD</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2 ТБ</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3.5 "</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>SATA III</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>1000000 ч</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>5.1 Вт</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>256 МБ</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>7200 об/мин</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>600 МБ/с</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>4.16 мс</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0.3 Вт</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>28 дБ</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Длина устройства</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Толщина</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Вес устройства</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Вес упаковки (ед)</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Гарантия</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>TOSHIBA</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>HDWD110UZSVA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>HDD</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>1 ТБ</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3.5 "</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>SATA III</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>6.4 Вт</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t>64 МБ</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>7200 об/мин</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>600 МБ/с</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>4.17 мс</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>26 дБ</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>DIGMA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DGSR2256GS93T</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>SSD</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>256 ГБ</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2.5"</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>SATA III</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>600 МБ/с</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>4.2 мс</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>6.8 Вт</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>6.1 Вт</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>30 дБ</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Вес упаковки (ед)</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Дополнительные характеристики</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>12 мес.</t>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3D TLC</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>510 МБ/с</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>450 МБ/с</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>120 ТБ</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>1500000 ч</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>1.8 Вт</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>0.5 Вт</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>73000</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>KINGSPEC</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>NX-512</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>SSD</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>512 ГБ</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>M.2 2280</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>PCI-E 3.0 x4</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3D NAND TLC</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>3100 МБ/с</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>3400 МБ/с</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>3.4 Вт</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>330000</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>250000</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>0.9</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1121,27 +1640,12 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Вес упаковки (ед)</t>
+          <t>Модель графического ядра</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Гарантия</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Модель графического ядра</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
           <t>Частота графического ядра</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Габариты упаковки (ед) ДхШхВ</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1657,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3700X</t>
+          <t>5800X</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1173,7 +1677,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.6 ГГц и 4.4 ГГц в режиме Turbo</t>
+          <t>3.8 ГГц и 4.7 ГГц в режиме Turbo</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -1193,12 +1697,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>65 Вт</t>
+          <t>105 Вт</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>95 °С</t>
+          <t>90 °С</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -1219,16 +1723,6 @@
       <c r="O2" t="inlineStr">
         <is>
           <t>отсутствует</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0.103 кг</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>12 мес.</t>
         </is>
       </c>
     </row>
@@ -1240,7 +1734,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5600G</t>
+          <t>3700X</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1250,22 +1744,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.9 ГГц и 4.4 ГГц в режиме Turbo</t>
+          <t>3.6 ГГц и 4.4 ГГц в режиме Turbo</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>16 МБ</t>
+          <t>32 МБ</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -1305,129 +1799,258 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>есть</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0.053 кг</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>12 мес.</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>AMD Radeon</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>1900 МГц</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>0.04x0.03x0.005 м</t>
+          <t>отсутствует</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>5600G</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SocketAM4</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.9 ГГц и 4.4 ГГц в режиме Turbo</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>16 МБ</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>7 нм</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>разблокированный</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>65 Вт</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>95 °С</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>DDR4</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>3200 МГц</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>AMD Radeon</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>1900 МГц</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>INTEL</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>G6405</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>LGA 1200</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>4.1 ГГц</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>4 МБ</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>14 нм</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>заблокированный</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>58 Вт</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>100 °С</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>DDR4</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>2666 МГц</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0.039 кг</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>12 мес.</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>Intel UHD Graphics 610</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>350 МГц и 1050 МГц Turbo</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>INTEL</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>11400F</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>LGA 1200</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.6 ГГц и 4.4 ГГц в режиме Turbo</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>12 МБ</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>14 нм</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>заблокированный</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>65 Вт</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>100 °С</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>DDR4</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>3200 МГц</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>отсутствует</t>
         </is>
       </c>
     </row>
@@ -1442,7 +2065,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1503,69 +2126,84 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>Поддержка DLSS</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Разъемы DVI</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Разъемов HDMI</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Разъемов Display Port</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Количество поддерживаемых мониторов</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Разъемы дополнительного питания</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Максимальное энергопотребление</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Рекомендуемая производителем мощность БП</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Система охлаждения</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Длина видеокарты</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
           <t>Поддержка трассировки лучей</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Разъемов HDMI</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Разъемов Display Port</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Разъемы дополнительного питания</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Рекомендуемая производителем мощность БП</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Система охлаждения</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Длина видеокарты</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Максимальное энергопотребление</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>PALIT</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DUAL-RX6650XT-O8G</t>
+          <t>PA-RTX2060SUPER DUAL 8G no LED</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AMD  Radeon RX 6650XT</t>
+          <t>NVIDIA  GeForce RTX 2060SUPER</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2447 МГц (2689 МГц, в режиме Boost)</t>
+          <t>1470 МГц (1650 МГц, в режиме Boost)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7 нм</t>
+          <t>12 нм</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1580,7 +2218,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>17500 МГц</t>
+          <t>14000 МГц</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1605,59 +2243,74 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>8 pin</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>650 Вт</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>175 Вт</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>550 Вт</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>активное (радиатор и два вентилятора)</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>243 мм</t>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>235 мм</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GIGABYTE</t>
+          <t>PALIT</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GV-IA310WF2-4GD</t>
+          <t>PA-RTX3050 DUAL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>INTEL  ARC A310</t>
+          <t>NVIDIA  GeForce RTX 3050</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2000 МГц</t>
+          <t>1552 МГц (1777 МГц, в режиме Boost)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6 нм</t>
+          <t>8 нм</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4 ГБ</t>
+          <t>8 ГБ</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -1667,7 +2320,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>15500 МГц</t>
+          <t>14000 МГц</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -1677,74 +2330,89 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>DirectX 12/OpenGL 4.6</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>DirectX 12 Ultimate/OpenGL 4.6</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>есть</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>без дополнительного питания</t>
+          <t>3</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>350 Вт</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
+          <t>8 pin</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>140 Вт</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>550 Вт</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
           <t>активное (радиатор и два вентилятора)</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>192 мм</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>40 Вт</t>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>245 мм</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>есть</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GIGABYTE</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GV-IA380WF2OC-6GD</t>
+          <t>DUAL-RX6650XT-O8G</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>INTEL  ARC A380</t>
+          <t>AMD  Radeon RX 6650XT</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2350 МГц</t>
+          <t>2447 МГц (2689 МГц, в режиме Boost)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6 нм</t>
+          <t>7 нм</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6 ГБ</t>
+          <t>8 ГБ</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -1754,7 +2422,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>15500 МГц</t>
+          <t>17500 МГц</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1767,39 +2435,39 @@
           <t>DirectX 12/OpenGL 4.6</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>6 pin</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>350 Вт</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
+          <t>8 pin</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>650 Вт</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
           <t>активное (радиатор и два вентилятора)</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>192 мм</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>55 Вт</t>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>243 мм</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>есть</t>
         </is>
       </c>
     </row>
@@ -1811,82 +2479,348 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>GV-R65XTGAMING OC-4GD</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>AMD  Radeon RX 6500XT</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2685 МГц (2825 МГц, в режиме Boost)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>6 нм</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4 ГБ</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>GDDR6</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>18000 МГц</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>7680 х 4320</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>DirectX 12 Ultimate/OpenGL 4.6</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>6 pin</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>400 Вт</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>активное (радиатор и три вентилятора)</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>282 мм</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>GIGABYTE</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>GV-IA310WF2-4GD</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>INTEL  ARC A310</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2000 МГц</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>6 нм</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4 ГБ</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>GDDR6</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>15500 МГц</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>7680 х 4320</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>DirectX 12/OpenGL 4.6</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>без дополнительного питания</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>40 Вт</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>350 Вт</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>активное (радиатор и два вентилятора)</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>192 мм</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>GIGABYTE</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>GV-IA380WF2OC-6GD</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>INTEL  ARC A380</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2350 МГц</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>6 нм</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6 ГБ</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>GDDR6</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>15500 МГц</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>7680 х 4320</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>DirectX 12/OpenGL 4.6</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>6 pin</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>55 Вт</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>350 Вт</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>активное (радиатор и два вентилятора)</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>192 мм</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>GIGABYTE</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>GV-IA380GAMING OC-6GD</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>INTEL  ARC A380</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>2450 МГц</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>6 нм</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>6 ГБ</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>GDDR6</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>15500 МГц</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>7680 х 4320</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>DirectX 12/OpenGL 4.6</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>6 pin</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>65 Вт</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
         <is>
           <t>350 Вт</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>активное (радиатор и три вентилятора)</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>280 мм</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>65 Вт</t>
         </is>
       </c>
     </row>
@@ -1901,7 +2835,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB6"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1912,266 +2846,90 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Общие характеристики</t>
+          <t>Брэнд</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>CORSAIR</t>
+          <t>Модель</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>CMK16GX4M2B3200C16</t>
+          <t>Форм-фактор</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>DIMM</t>
+          <t>Тип памяти</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>DDR4</t>
+          <t>Количество модулей</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Объем модуля</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>8 ГБ</t>
+          <t>Количество контактов</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>288-pin</t>
+          <t>Режим работы</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>двухканальный/четырехканальный</t>
+          <t>Скорость</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>PC4-25600</t>
+          <t>Напряжение</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>unbuffered</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr"/>
+          <t>Задержка</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Латентность</t>
+        </is>
+      </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>не поддерживается</t>
+          <t>512x8</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Напряжение</t>
+          <t>16</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>1.35В</t>
+          <t>двустороннее</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Латентность</t>
+          <t>нет</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>2133МГц</t>
+          <t>Ret</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Автоматические настройки модуля памяти.</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>1.2В</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>15-15-15-36</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>есть</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Ret</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>0.02 кг</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>KINGSTON</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>KF432C16BBK2/16</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>двухканальный</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>2400МГц</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>17-17-17</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>0.08 кг</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>KF552C40BBK2-32</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>DDR5</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>16 ГБ</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>PC5-41600</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>1.25В</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>4800Мгц</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>1.1В</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>40-39-39</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>0.06 кг</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>KF560C40BBK2-32</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>PC5-48000</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>PATRIOT</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>PSD38G16002</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>DDR3</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>240-pin</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>PC3-12800</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>1.5В</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>1600МГц</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>11-11-11</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>512x8</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>двустороннее</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>нет</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>0.004 кг</t>
         </is>
@@ -2180,678 +2938,1813 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Брэнд</t>
+          <t>CORSAIR</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Модель</t>
+          <t>CMK16GX4M2B3200C16</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Форм-фактор</t>
+          <t>DIMM</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Тип памяти</t>
+          <t>DDR4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Количество модулей</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Объем модуля</t>
+          <t>8 ГБ</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Количество контактов</t>
+          <t>288-pin</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Режим работы</t>
+          <t>двухканальный/четырехканальный</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Показатель скорости</t>
+          <t>3200МГц</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Буферизация</t>
+          <t>1.35В</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Поддержка ECC</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Скорость</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Задержка</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+          <t>16-18-18-36</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>CL16</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Напряжение (SPD)</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Задержка (SPD)</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>Радиатор охлаждения</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>Тип поставки</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>Вес упаковки (ед)</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>Гарантия</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
-      <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
-      <c r="AT2" t="inlineStr"/>
-      <c r="AU2" t="inlineStr"/>
-      <c r="AV2" t="inlineStr"/>
-      <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="inlineStr"/>
-      <c r="AY2" t="inlineStr"/>
-      <c r="AZ2" t="inlineStr"/>
-      <c r="BA2" t="inlineStr"/>
-      <c r="BB2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Брэнд</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+          <t>KINGSTON</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>KF432C16BBK2/16</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DIMM</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Тип памяти</t>
+          <t>DDR4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Количество модулей</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Объем модуля</t>
+          <t>8 ГБ</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Количество контактов</t>
+          <t>288-pin</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Режим работы</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>двухканальный</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>3200МГц</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Буферизация</t>
+          <t>1.35В</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Поддержка ECC</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Скорость</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Задержка</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+          <t>16-18-18</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
         <is>
           <t>CL16</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>Задержка (SPD)</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>Тип поставки</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>Вес упаковки (ед)</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>Модель</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>Форм-фактор</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>Показатель скорости</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>Напряжение (SPD)</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>Количество чипов</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Радиатор охлаждения</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>Гарантия</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="inlineStr"/>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr"/>
-      <c r="AT3" t="inlineStr"/>
-      <c r="AU3" t="inlineStr"/>
-      <c r="AV3" t="inlineStr"/>
-      <c r="AW3" t="inlineStr"/>
-      <c r="AX3" t="inlineStr"/>
-      <c r="AY3" t="inlineStr"/>
-      <c r="AZ3" t="inlineStr"/>
-      <c r="BA3" t="inlineStr"/>
-      <c r="BB3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Брэнд</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+          <t>KINGSTON</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>KF552C40BBK2-32</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>DIMM</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Тип памяти</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+          <t>DDR5</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Объем модуля</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Показатель скорости</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+          <t>16 ГБ</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>288-pin</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>5200МГц</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>1.25В</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Поддержка ECC</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Скорость</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr">
+          <t>40-40-40</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>CL40</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>Тип поставки</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>Вес упаковки (ед)</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>Модель</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>Форм-фактор</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>Количество модулей</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>Количество контактов</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>Буферизация</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>Задержка</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>Напряжение (SPD)</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>Задержка (SPD)</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>Радиатор охлаждения</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>Гарантия</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr"/>
-      <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr"/>
-      <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="inlineStr"/>
-      <c r="AT4" t="inlineStr"/>
-      <c r="AU4" t="inlineStr"/>
-      <c r="AV4" t="inlineStr"/>
-      <c r="AW4" t="inlineStr"/>
-      <c r="AX4" t="inlineStr"/>
-      <c r="AY4" t="inlineStr"/>
-      <c r="AZ4" t="inlineStr"/>
-      <c r="BA4" t="inlineStr"/>
-      <c r="BB4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Брэнд</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+          <t>KINGSTON</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>KF560C40BBK2-32</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>DIMM</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Тип памяти</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+          <t>DDR5</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Объем модуля</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Показатель скорости</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+          <t>16 ГБ</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>288-pin</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>6000МГц</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>1.35В</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Поддержка ECC</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Скорость</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Задержка</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+          <t>40-40-40</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>CL40</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>Тип поставки</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>Вес упаковки (ед)</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>Модель</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>Количество модулей</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>Количество контактов</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>Напряжение (SPD)</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>Задержка (SPD)</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>Радиатор охлаждения</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>Гарантия</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>Форм-фактор</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>Буферизация</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="inlineStr"/>
-      <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="inlineStr"/>
-      <c r="AT5" t="inlineStr"/>
-      <c r="AU5" t="inlineStr"/>
-      <c r="AV5" t="inlineStr"/>
-      <c r="AW5" t="inlineStr"/>
-      <c r="AX5" t="inlineStr"/>
-      <c r="AY5" t="inlineStr"/>
-      <c r="AZ5" t="inlineStr"/>
-      <c r="BA5" t="inlineStr"/>
-      <c r="BB5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>PATRIOT</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PSD38G16002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>DIMM</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>DDR3</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8 ГБ</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>240-pin</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1600МГц</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>1.5В</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>11-11-11</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>CL11</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Количество чипов</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Крепление чипов</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Радиатор охлаждения</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Тип поставки</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Вес упаковки (ед)</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Гарантия</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AX6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Бренд</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Модель</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Гнездо процессора</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Intel H510</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>DIMM</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>3200 МГц</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>3200/ 3000 / 2933 / 2800 / 2666 / 2400 / 2133 МГц</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>совместимость уточняйте на сайте производителя</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>64 ГБ</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>двухканальный</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>1 шт. (клавиатура или мышь)</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Gigabit Ethernet</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Intel i219V</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>8 каналов (7.1)</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Realtek ALC897</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>mATX</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>24+8 pin</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Ret</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>0.26x0.26x0.06 м</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>0.835 кг</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Intel H470</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>2933 МГц</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>2933/2666/2400/2133 МГц</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>2 шт. (клавиатура и мышь)</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Realtek</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>0.778 кг</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>AMD B450</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>3600(O.C.)/ 3466(O.C.)/ 2933/ 2667/ 2400/ 2133 МГц</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>32 ГБ</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Realtek ALC887</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>0.27x0.24x0.05 м</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>0.9 кг</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>AMD X670</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>CrossFire</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>5200 МГц</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>6400(OC) / 6200(OC) / 6000(OC) / 5600(OC) / 5200 / 4800 / 4400 МГц</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>128 ГБ</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>x16 в одноканальном, x16 + x4 в двухканальном и еще один x2</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>видеовыходы задействуются после установки процессора со встроенным графическим ядром</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>2.5Gigabit</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>ATX</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>24+8+8 pin</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>2.456 кг</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>6666(OC) / 6600(OC) / 6400(OC) / 6200(OC) / 6000(OC) / 5600(OC) / 5200 / 4800 / 4400 МГц</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>2.682 кг</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MSI</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>H510M-A PRO</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>LGA 1200</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Тип поддерживаемой памяти</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Частотная спецификация памяти</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Поддержка частот оперативной памяти</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Поддерживаемые модули памяти</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Разъем PS/2</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Кол-во внешних USB 2.0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Режим работы оперативной памяти</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Слотов PCI-E x1</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Сетевой интерфейс</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Разъемов D-Sub (VGA)</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Кол-во внешних USB 3.0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Сетевой контроллер</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Звук</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Аудио контроллер</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Форм-фактор</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Питание материнской платы и процессора</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Тип поставки</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Габариты упаковки (ед) ДхШхВ</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Вес упаковки (ед)</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Гарантия</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GIGABYTE</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>H410M H V2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>LGA 1200</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Частотная спецификация памяти</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Разъем PS/2</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Разъемов D-Sub (VGA)</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Режим работы оперативной памяти</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Слотов PCI-E x1</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Сетевой интерфейс</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Кол-во внешних USB 3.0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Звук</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Аудио контроллер</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Питание материнской платы и процессора</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Тип поставки</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Вес упаковки (ед)</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Тип поддерживаемой памяти</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>Поддержка частот оперативной памяти</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>Поддерживаемые модули памяти</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>Разъемов SATA3</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Кол-во внешних USB 2.0</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Форм-фактор</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>Гарантия</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>GIGABYTE</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>B450M H</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SocketAM4</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Частотная спецификация памяти</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Поддержка SATA RAID</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Разъемов D-Sub (VGA)</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Слотов PCI-E x1</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Сетевой интерфейс</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Кол-во внешних USB 2.0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Сетевой контроллер</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Аудио контроллер</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Питание материнской платы и процессора</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Тип поставки</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Габариты упаковки (ед) ДхШхВ</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>Поддержка частот оперативной памяти</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>Разъем PS/2</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Кол-во внешних USB 3.0</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Звук</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>Тип поддерживаемой памяти</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>Поддерживаемые модули памяти</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>Режим работы оперативной памяти</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>Форм-фактор</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>Вес упаковки (ед)</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>Гарантия</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GIGABYTE</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>X670 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>SocketAM5</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Частотная спецификация памяти</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Поддержка SATA RAID</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Кол-во внешних USB 3.2 (Type-C)</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Слотов PCI-E 3.0&amp;nbsp;x16</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Особенности внешних разъемов</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Кол-во внешних USB 3.0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Форм-фактор</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Вес упаковки (ед)</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>Звук</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>WiFi в стандартной поставке</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>Поддержка SLI/CrossFire</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>Тип поддерживаемой памяти</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>Поддержка частот оперативной памяти</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>Поддерживаемые модули памяти</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>Режим работы оперативной памяти</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>Разъемов SATA3</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>Кол-во внешних USB 3.1</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>Сетевой интерфейс</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>Сетевой контроллер</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t>Питание материнской платы и процессора</t>
+        </is>
+      </c>
+      <c r="AU5" t="inlineStr">
+        <is>
+          <t>Тип поставки</t>
+        </is>
+      </c>
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t>Гарантия</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>GIGABYTE</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>SocketAM5</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Частотная спецификация памяти</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Поддержка SATA RAID</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Кол-во внешних USB 3.2 (Type-C)</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Слотов PCI-E 3.0&amp;nbsp;x16</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Особенности внешних разъемов</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Поддерживаемые диски и накопители</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Форм-фактор</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Вес упаковки (ед)</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>Звук</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>WiFi в стандартной поставке</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Поддержка SLI/CrossFire</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>Тип поддерживаемой памяти</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>Поддержка частот оперативной памяти</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>Режим работы оперативной памяти</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>Разъемов SATA3</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>Кол-во внешних USB 3.1</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>Сетевой интерфейс</t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>Сетевой контроллер</t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr">
+        <is>
+          <t>Питание материнской платы и процессора</t>
+        </is>
+      </c>
+      <c r="AU6" t="inlineStr">
+        <is>
+          <t>Тип поставки</t>
+        </is>
+      </c>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Поддерживаемые модули памяти</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Гарантия</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
           <t>Брэнд</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Модель</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Форм-фактор</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Мощность</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Активный PFC</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Производительность (КПД)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Сертифицирован в стандарте</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Наработка на отказ (MTBF)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Отсоединяющиеся кабели</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Питание материнской платы и процессора</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Длина линий питания МП</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Питание видеокарты</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Разъемы SATA</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Разъемы Peripheral (Molex)</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Количество вентиляторов</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Терморегулятор оборотов</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Сетевой кабель</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Уровень шума</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GIGABYTE</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AORUS GP-AP850GM</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ATX</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>850 Вт</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>90 %</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>80 PLUS GOLD</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>100000 ч</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>24+2x(4+4) pin</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>650 мм</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>6х(6+2) pin</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>6 шт</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>5 шт</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>один</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>в комплекте</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>COOLER MASTER</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MWE White V2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ATX</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>500 Вт</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>85 %</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>80 PLUS</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>100000 ч</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>24+4+4 pin</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>500 мм</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>2х(6+2) pin</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>6 шт</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>3 шт</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>один</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>в комплекте</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>31 дБ</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DEEPCOOL</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>PF450</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ATX</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>450 Вт</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>85 %</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>80 PLUS WHITE</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>100000 ч</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>24+4+4 pin</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>550 мм</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>2х(6+2) pin</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>6 шт</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2 шт</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>один</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>в комплекте</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GIGABYTE</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>GP-P450B</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ATX</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>450 Вт</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>85 %</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>80 PLUS BRONZE</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>100000 ч</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>24+4+4 pin</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>550 мм</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>2х(6+2) pin</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>6 шт</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>3 шт</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>один</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>в комплекте</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>GIGABYTE</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>GP-UD750GM</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ATX</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Тип памяти</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+          <t>750 Вт</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>90 %</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Количество контактов</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+          <t>80 PLUS GOLD</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>100000 ч</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>24+2x(4+4) pin</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Поддержка ECC</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr"/>
+          <t>610 мм</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>4х(6+2) pin</t>
+        </is>
+      </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Скорость</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>CL11</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr"/>
+          <t>8 шт</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>3 шт</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>один</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>в комплекте</t>
+        </is>
+      </c>
       <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>Вес упаковки (ед)</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="inlineStr"/>
-      <c r="AM6" t="inlineStr"/>
-      <c r="AN6" t="inlineStr"/>
-      <c r="AO6" t="inlineStr"/>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>Модель</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr">
-        <is>
-          <t>Форм-фактор</t>
-        </is>
-      </c>
-      <c r="AR6" t="inlineStr">
-        <is>
-          <t>Объем модуля</t>
-        </is>
-      </c>
-      <c r="AS6" t="inlineStr">
-        <is>
-          <t>Показатель скорости</t>
-        </is>
-      </c>
-      <c r="AT6" t="inlineStr">
-        <is>
-          <t>Буферизация</t>
-        </is>
-      </c>
-      <c r="AU6" t="inlineStr">
-        <is>
-          <t>Конфигурация чипов</t>
-        </is>
-      </c>
-      <c r="AV6" t="inlineStr">
-        <is>
-          <t>Задержка (SPD)</t>
-        </is>
-      </c>
-      <c r="AW6" t="inlineStr">
-        <is>
-          <t>Напряжение (SPD)</t>
-        </is>
-      </c>
-      <c r="AX6" t="inlineStr">
-        <is>
-          <t>Количество чипов</t>
-        </is>
-      </c>
-      <c r="AY6" t="inlineStr">
-        <is>
-          <t>Крепление чипов</t>
-        </is>
-      </c>
-      <c r="AZ6" t="inlineStr">
-        <is>
-          <t>Радиатор охлаждения</t>
-        </is>
-      </c>
-      <c r="BA6" t="inlineStr">
-        <is>
-          <t>Тип поставки</t>
-        </is>
-      </c>
-      <c r="BB6" t="inlineStr">
-        <is>
-          <t>Гарантия</t>
-        </is>
-      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AEROCOOL</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>AERO WHITE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ATX</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>500 Вт</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>80 %</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>80 PLUS</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>24+4+4 pin</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>500 мм</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>2х(6+2) pin</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>5 шт</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>3 шт</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>один</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>в комплекте</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -951,7 +951,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1057,45 +1057,20 @@
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>4096 байт на сектор; рабочая нагрузка - 55 ТБ в год, 2400 часов в год (круглосуточно);</t>
+          <t>Скорость произвольного чтения (4KB) (IOPS)</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>147 мм</t>
+          <t>Скорость произвольной записи (4KB) (IOPS)</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>20.2 мм</t>
+          <t>Поддержка NVMe</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>415 грамм</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>0.56 кг</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Скорость произвольного чтения (4KB) (IOPS)</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Скорость произвольной записи (4KB) (IOPS)</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Поддержка NVMe</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Максимальное количество циклов перезаписи в день (DWPD)</t>
         </is>
@@ -1306,31 +1281,6 @@
           <t>28 дБ</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>Длина устройства</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>Толщина</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>Вес устройства</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>Вес упаковки (ед)</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>Гарантия</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1460,12 +1410,12 @@
           <t>0.5 Вт</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>50000</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>73000</t>
         </is>
@@ -1522,22 +1472,22 @@
           <t>3.4 Вт</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>330000</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>250000</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>0.9</t>
         </is>
@@ -2835,7 +2785,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2904,36 +2854,6 @@
           <t>Латентность</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>512x8</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>двустороннее</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>нет</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Ret</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>0.004 кг</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -3222,36 +3142,6 @@
       <c r="L6" t="inlineStr">
         <is>
           <t>CL11</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Количество чипов</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Крепление чипов</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Радиатор охлаждения</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>Тип поставки</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>Вес упаковки (ед)</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>Гарантия</t>
         </is>
       </c>
     </row>
@@ -3266,7 +3156,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3292,237 +3182,67 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Intel H510</t>
+          <t>Чипсет</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>DIMM</t>
+          <t>Тип поддерживаемой памяти</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>3200 МГц</t>
+          <t>Частотная спецификация памяти</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>3200/ 3000 / 2933 / 2800 / 2666 / 2400 / 2133 МГц</t>
+          <t>Слотов памяти DDR4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>совместимость уточняйте на сайте производителя</t>
+          <t>Максимальный объем оперативной памяти</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Режим работы оперативной памяти</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>64 ГБ</t>
+          <t>Разъемов SATA3</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>двухканальный</t>
+          <t>Разъемов M.2</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Кол-во внешних USB 3.0</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Звук</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>1 шт. (клавиатура или мышь)</t>
+          <t>Форм-фактор</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Gigabit Ethernet</t>
+          <t>Питание материнской платы и процессора</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Intel i219V</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>8 каналов (7.1)</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Realtek ALC897</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>mATX</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>24+8 pin</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Ret</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>0.26x0.26x0.06 м</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>0.835 кг</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Intel H470</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>2933 МГц</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>2933/2666/2400/2133 МГц</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>есть</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>2 шт. (клавиатура и мышь)</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Realtek</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>0.778 кг</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>AMD B450</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>3600(O.C.)/ 3466(O.C.)/ 2933/ 2667/ 2400/ 2133 МГц</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>32 ГБ</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Realtek ALC887</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>0.27x0.24x0.05 м</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>0.9 кг</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>AMD X670</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>CrossFire</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>5200 МГц</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>6400(OC) / 6200(OC) / 6000(OC) / 5600(OC) / 5200 / 4800 / 4400 МГц</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>128 ГБ</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>x16 в одноканальном, x16 + x4 в двухканальном и еще один x2</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>видеовыходы задействуются после установки процессора со встроенным графическим ядром</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>2.5Gigabit</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>ATX</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>24+8+8 pin</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>2.456 кг</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>6666(OC) / 6600(OC) / 6400(OC) / 6200(OC) / 6000(OC) / 5600(OC) / 5200 / 4800 / 4400 МГц</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>2.682 кг</t>
+          <t>Слотов памяти DDR5</t>
         </is>
       </c>
     </row>
@@ -3544,102 +3264,62 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Тип поддерживаемой памяти</t>
+          <t>Intel H510</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Частотная спецификация памяти</t>
+          <t>DIMM</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Поддержка частот оперативной памяти</t>
+          <t>3200 МГц</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Поддерживаемые модули памяти</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Разъем PS/2</t>
+          <t>64 ГБ</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Кол-во внешних USB 2.0</t>
+          <t>двухканальный</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Режим работы оперативной памяти</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Слотов PCI-E x1</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Сетевой интерфейс</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Разъемов D-Sub (VGA)</t>
+          <t>8 каналов (7.1)</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Кол-во внешних USB 3.0</t>
+          <t>mATX</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Сетевой контроллер</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Звук</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Аудио контроллер</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Форм-фактор</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Питание материнской платы и процессора</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>Тип поставки</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>Габариты упаковки (ед) ДхШхВ</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>Вес упаковки (ед)</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>Гарантия</t>
+          <t>24+8 pin</t>
         </is>
       </c>
     </row>
@@ -3659,99 +3339,64 @@
           <t>LGA 1200</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Intel H470</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Частотная спецификация памяти</t>
+          <t>DIMM</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2933 МГц</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Разъем PS/2</t>
+          <t>64 ГБ</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Разъемов D-Sub (VGA)</t>
+          <t>двухканальный</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Режим работы оперативной памяти</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Слотов PCI-E x1</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Сетевой интерфейс</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Кол-во внешних USB 3.0</t>
+          <t>8 каналов (7.1)</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>mATX</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Звук</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Аудио контроллер</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>Питание материнской платы и процессора</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>Тип поставки</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>Вес упаковки (ед)</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>Тип поддерживаемой памяти</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>Поддержка частот оперативной памяти</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>Поддерживаемые модули памяти</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>Разъемов SATA3</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>Кол-во внешних USB 2.0</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Форм-фактор</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>Гарантия</t>
+          <t>24+8 pin</t>
         </is>
       </c>
     </row>
@@ -3771,109 +3416,64 @@
           <t>SocketAM4</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>AMD B450</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Частотная спецификация памяти</t>
+          <t>DIMM</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2933 МГц</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Поддержка SATA RAID</t>
+          <t>32 ГБ</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Разъемов D-Sub (VGA)</t>
+          <t>двухканальный</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Слотов PCI-E x1</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Сетевой интерфейс</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Кол-во внешних USB 2.0</t>
+          <t>8 каналов (7.1)</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>mATX</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Сетевой контроллер</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Аудио контроллер</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>Питание материнской платы и процессора</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>Тип поставки</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>Габариты упаковки (ед) ДхШхВ</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>Поддержка частот оперативной памяти</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>Разъем PS/2</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>Кол-во внешних USB 3.0</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Звук</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>Тип поддерживаемой памяти</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>Поддерживаемые модули памяти</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>Режим работы оперативной памяти</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>Форм-фактор</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>Вес упаковки (ед)</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>Гарантия</t>
+          <t>24+8 pin</t>
         </is>
       </c>
     </row>
@@ -3893,114 +3493,64 @@
           <t>SocketAM5</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>AMD X670</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Частотная спецификация памяти</t>
+          <t>DIMM</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5200 МГц</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Поддержка SATA RAID</t>
+          <t>128 ГБ</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Кол-во внешних USB 3.2 (Type-C)</t>
+          <t>двухканальный</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Слотов PCI-E 3.0&amp;nbsp;x16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Особенности внешних разъемов</t>
+          <t>6</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Кол-во внешних USB 3.0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>Форм-фактор</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>Вес упаковки (ед)</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>Звук</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>WiFi в стандартной поставке</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>Поддержка SLI/CrossFire</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>Тип поддерживаемой памяти</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>Поддержка частот оперативной памяти</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>Поддерживаемые модули памяти</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>Режим работы оперативной памяти</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>Разъемов SATA3</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>Кол-во внешних USB 3.1</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>Сетевой интерфейс</t>
-        </is>
-      </c>
-      <c r="AS5" t="inlineStr">
-        <is>
-          <t>Сетевой контроллер</t>
-        </is>
-      </c>
-      <c r="AT5" t="inlineStr">
-        <is>
-          <t>Питание материнской платы и процессора</t>
-        </is>
-      </c>
-      <c r="AU5" t="inlineStr">
-        <is>
-          <t>Тип поставки</t>
-        </is>
-      </c>
-      <c r="AV5" t="inlineStr">
-        <is>
-          <t>Гарантия</t>
+          <t>8 каналов (7.1)</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>ATX</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>24+8+8 pin</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -4020,114 +3570,64 @@
           <t>SocketAM5</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>AMD X670</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Частотная спецификация памяти</t>
+          <t>DIMM</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5200 МГц</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Поддержка SATA RAID</t>
+          <t>128 ГБ</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Кол-во внешних USB 3.2 (Type-C)</t>
+          <t>двухканальный</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Слотов PCI-E 3.0&amp;nbsp;x16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Особенности внешних разъемов</t>
+          <t>6</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Поддерживаемые диски и накопители</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>Форм-фактор</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>Вес упаковки (ед)</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>Звук</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>WiFi в стандартной поставке</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>Поддержка SLI/CrossFire</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>Тип поддерживаемой памяти</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>Поддержка частот оперативной памяти</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>Режим работы оперативной памяти</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>Разъемов SATA3</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr">
-        <is>
-          <t>Кол-во внешних USB 3.1</t>
-        </is>
-      </c>
-      <c r="AR6" t="inlineStr">
-        <is>
-          <t>Сетевой интерфейс</t>
-        </is>
-      </c>
-      <c r="AS6" t="inlineStr">
-        <is>
-          <t>Сетевой контроллер</t>
-        </is>
-      </c>
-      <c r="AT6" t="inlineStr">
-        <is>
-          <t>Питание материнской платы и процессора</t>
-        </is>
-      </c>
-      <c r="AU6" t="inlineStr">
-        <is>
-          <t>Тип поставки</t>
-        </is>
-      </c>
-      <c r="AW6" t="inlineStr">
-        <is>
-          <t>Поддерживаемые модули памяти</t>
-        </is>
-      </c>
-      <c r="AX6" t="inlineStr">
-        <is>
-          <t>Гарантия</t>
+          <t>8 каналов (7.1)</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>ATX</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>24+8+8 pin</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -23,13 +23,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -40,7 +43,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -48,12 +51,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -415,14 +427,445 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Бренд</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Модель</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Тип охлаждения</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Количество вентиляторов</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Размер вентилятора</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Уровень шума вентилятора</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Скорость вращения вентилятора</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Максимальное тепловыделение процессора</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Тип крепления к материнской плате</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Основание кулера</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Использование тепловых трубок</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Материал радиатора</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Питание вентилятора от материнской платы</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Потребляемое напряжение вентилятора</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Потребляемая сила тока вентилятора</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Потребляемая мощность вентилятора</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Высота кулера</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Тепловые трубки</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Цвет подсветки</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>DEEPCOOL</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>GAMMA HUNTER</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>активное воздушное</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>120 мм</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>21 дБ</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1600 об/мин</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>95 Вт</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>на винтах</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>цельное, материал - алюминий</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>без тепловых трубок</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>алюминий</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>3-pin</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>12 В</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0.12 A</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>1.44 Вт</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>63.5 мм</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ID-COOLING</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SE-903-R V2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>активное воздушное</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92 мм</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>23 дБ</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2200 об/мин</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>130 Вт</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>на защелках + скоба</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>с открытыми тепловыми трубками, материал - алюминий/медь</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>с тепловыми трубками</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>алюминий+медь</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>3-pin</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>12 В</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0.25 A</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>3 Вт</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>123 мм</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>3 шт с диаметром по 6 мм</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>красный</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DEEPCOOL</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>THETA 21 PWM</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>активное воздушное</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92 мм</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>18 - 33 дБ</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>900 - 2400 об/мин</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>95 Вт</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>на защелках</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>цельное, материал - алюминий</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>без тепловых трубок</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>алюминий</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>4-pin</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>12 В</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0.13 A</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>1.65 Вт</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>60.5 мм</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AEROCOOL</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Frost 12 PWM</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>активное воздушное</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>120 мм</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>18 - 28 дБ</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>500 - 1500 об/мин</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>4-pin</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>12 В</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0.28 A</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>3.36 Вт</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>многоцветная</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -433,14 +876,549 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Брэнд</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Модель</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Тип жесткого диска</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Объем накопителя</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Форм-фактор</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Интерфейс</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Тип памяти NAND</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Максимальная скорость чтения</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Максимальная скорость записи</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Ресурс TBW</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Время наработки на отказ</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Потребляемая мощность</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Потребляемая мощность в режиме ожидания</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Буферная память</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Скорость вращения шпинделя</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Максимальная скорость интерфейса</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Средняя латентность</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Мощность в режиме ожидания</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Уровень шума работы</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Скорость произвольного чтения (4KB) (IOPS)</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Скорость произвольной записи (4KB) (IOPS)</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Поддержка NVMe</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Максимальное количество циклов перезаписи в день (DWPD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>KINGSTON</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>SA400S37/480G</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SSD</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>480 ГБ</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2.5"</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>SATA III</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3D NAND</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>500 МБ/с</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>450 МБ/с</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>160 ТБ</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>1000000 ч</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>1.535 Вт</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0.279 Вт</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>WD</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>WD10EZEX</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>HDD</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1 ТБ</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3.5 "</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>SATA III</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>6.8 Вт</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>64 МБ</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>7200 об/мин</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>600 МБ/с</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>4.2 мс</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>6.1 Вт</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>30 дБ</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SEAGATE</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ST2000DM008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>HDD</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2 ТБ</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3.5 "</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>SATA III</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>1000000 ч</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>5.1 Вт</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>256 МБ</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>7200 об/мин</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>600 МБ/с</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>4.16 мс</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0.3 Вт</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>28 дБ</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>TOSHIBA</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>HDWD110UZSVA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>HDD</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1 ТБ</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3.5 "</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>SATA III</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>6.4 Вт</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>64 МБ</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>7200 об/мин</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>600 МБ/с</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>4.17 мс</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>26 дБ</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>DIGMA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DGSR2256GS93T</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>SSD</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>256 ГБ</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2.5"</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>SATA III</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3D TLC</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>510 МБ/с</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>450 МБ/с</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>120 ТБ</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>1500000 ч</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>1.8 Вт</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>0.5 Вт</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>73000</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>KINGSPEC</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>NX-512</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>SSD</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>512 ГБ</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>M.2 2280</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>PCI-E 3.0 x4</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3D NAND TLC</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>3100 МБ/с</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>3400 МБ/с</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>3.4 Вт</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>330000</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>250000</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -451,14 +1429,507 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Брэнд</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Модель</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Гнездо процессора</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Количество ядер</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Количество потоков</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Частота</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>L3 кэш</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Технологический процесс</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Множитель</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Тепловыделение</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Максимальная температура</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Тип памяти</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Поддержка частот памяти</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Количество каналов памяти</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Встроенное графическое ядро</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Модель графического ядра</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Частота графического ядра</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>5800X</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SocketAM4</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.8 ГГц и 4.7 ГГц в режиме Turbo</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>32 МБ</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>7 нм</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>разблокированный</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>105 Вт</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>90 °С</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>DDR4</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>3200 МГц</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>отсутствует</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3700X</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SocketAM4</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.6 ГГц и 4.4 ГГц в режиме Turbo</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>32 МБ</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>7 нм</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>разблокированный</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>65 Вт</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>95 °С</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>DDR4</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>3200 МГц</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>отсутствует</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>5600G</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SocketAM4</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.9 ГГц и 4.4 ГГц в режиме Turbo</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>16 МБ</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>7 нм</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>разблокированный</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>65 Вт</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>95 °С</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>DDR4</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>3200 МГц</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>AMD Radeon</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>1900 МГц</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>INTEL</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>G6405</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>LGA 1200</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.1 ГГц</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4 МБ</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>14 нм</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>заблокированный</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>58 Вт</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>100 °С</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>DDR4</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2666 МГц</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Intel UHD Graphics 610</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>350 МГц и 1050 МГц Turbo</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>INTEL</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>11400F</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>LGA 1200</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.6 ГГц и 4.4 ГГц в режиме Turbo</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>12 МБ</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>14 нм</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>заблокированный</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>65 Вт</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>100 °С</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>DDR4</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>3200 МГц</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>отсутствует</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -469,14 +1940,766 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Бренд</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Модель</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Видеочипсет</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Частота графического процессора</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Техпроцесс</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Объем видеопамяти</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Тип видеопамяти</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Частота видеопамяти</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Максимальное разрешение</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Поддержка технологий</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Поддержка DLSS</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Разъемы DVI</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Разъемов HDMI</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Разъемов Display Port</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Количество поддерживаемых мониторов</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Разъемы дополнительного питания</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Максимальное энергопотребление</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Рекомендуемая производителем мощность БП</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Система охлаждения</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Длина видеокарты</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Поддержка трассировки лучей</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PALIT</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>PA-RTX2060SUPER DUAL 8G no LED</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>NVIDIA  GeForce RTX 2060SUPER</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1470 МГц (1650 МГц, в режиме Boost)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>12 нм</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8 ГБ</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>GDDR6</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>14000 МГц</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>7680 х 4320</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>DirectX 12/OpenGL 4.6</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>8 pin</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>175 Вт</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>550 Вт</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>активное (радиатор и два вентилятора)</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>235 мм</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PALIT</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>PA-RTX3050 DUAL</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>NVIDIA  GeForce RTX 3050</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1552 МГц (1777 МГц, в режиме Boost)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>8 нм</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8 ГБ</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>GDDR6</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>14000 МГц</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>7680 х 4320</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>DirectX 12 Ultimate/OpenGL 4.6</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>8 pin</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>140 Вт</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>550 Вт</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>активное (радиатор и два вентилятора)</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>245 мм</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ASUS</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DUAL-RX6650XT-O8G</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>AMD  Radeon RX 6650XT</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2447 МГц (2689 МГц, в режиме Boost)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>7 нм</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8 ГБ</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>GDDR6</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>17500 МГц</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>7680 х 4320</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>DirectX 12/OpenGL 4.6</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>8 pin</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>650 Вт</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>активное (радиатор и два вентилятора)</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>243 мм</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GIGABYTE</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>GV-R65XTGAMING OC-4GD</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>AMD  Radeon RX 6500XT</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2685 МГц (2825 МГц, в режиме Boost)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>6 нм</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4 ГБ</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>GDDR6</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>18000 МГц</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>7680 х 4320</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>DirectX 12 Ultimate/OpenGL 4.6</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>6 pin</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>400 Вт</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>активное (радиатор и три вентилятора)</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>282 мм</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>GIGABYTE</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>GV-IA310WF2-4GD</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>INTEL  ARC A310</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2000 МГц</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>6 нм</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4 ГБ</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>GDDR6</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>15500 МГц</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>7680 х 4320</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>DirectX 12/OpenGL 4.6</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>без дополнительного питания</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>40 Вт</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>350 Вт</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>активное (радиатор и два вентилятора)</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>192 мм</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>GIGABYTE</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>GV-IA380WF2OC-6GD</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>INTEL  ARC A380</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2350 МГц</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>6 нм</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6 ГБ</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>GDDR6</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>15500 МГц</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>7680 х 4320</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>DirectX 12/OpenGL 4.6</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>6 pin</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>55 Вт</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>350 Вт</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>активное (радиатор и два вентилятора)</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>192 мм</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>GIGABYTE</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>GV-IA380GAMING OC-6GD</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>INTEL  ARC A380</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2450 МГц</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>6 нм</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6 ГБ</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>GDDR6</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>15500 МГц</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>7680 х 4320</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>DirectX 12/OpenGL 4.6</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>6 pin</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>65 Вт</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>350 Вт</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>активное (радиатор и три вентилятора)</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>280 мм</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -487,14 +2710,367 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Брэнд</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Модель</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Форм-фактор</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Тип памяти</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Количество модулей</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Объем модуля</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Количество контактов</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Режим работы</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Скорость</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Напряжение</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Задержка</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Латентность</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CORSAIR</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CMK16GX4M2B3200C16</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>DIMM</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>DDR4</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8 ГБ</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>288-pin</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>двухканальный/четырехканальный</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>3200МГц</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>1.35В</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>16-18-18-36</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>CL16</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>KINGSTON</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>KF432C16BBK2/16</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DIMM</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>DDR4</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8 ГБ</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>288-pin</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>двухканальный</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>3200МГц</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>1.35В</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>16-18-18</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>CL16</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>KINGSTON</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>KF552C40BBK2-32</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>DIMM</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>DDR5</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>16 ГБ</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>288-pin</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>5200МГц</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>1.25В</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>40-40-40</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>CL40</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>KINGSTON</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>KF560C40BBK2-32</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>DIMM</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>DDR5</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>16 ГБ</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>288-pin</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>6000МГц</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>1.35В</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>40-40-40</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>CL40</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PATRIOT</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PSD38G16002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>DIMM</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>DDR3</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8 ГБ</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>240-pin</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1600МГц</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>1.5В</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>11-11-11</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>CL11</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -505,14 +3081,482 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Бренд</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Модель</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Гнездо процессора</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Чипсет</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Тип поддерживаемой памяти</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Частотная спецификация памяти</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Слотов памяти DDR4</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Максимальный объем оперативной памяти</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Режим работы оперативной памяти</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Разъемов SATA3</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Разъемов M.2</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Кол-во внешних USB 3.0</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Звук</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Форм-фактор</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Питание материнской платы и процессора</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Слотов памяти DDR5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MSI</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>H510M-A PRO</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>LGA 1200</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Intel H510</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>DIMM</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3200 МГц</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>64 ГБ</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>двухканальный</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>8 каналов (7.1)</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>mATX</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>24+8 pin</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GIGABYTE</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>H410M H V2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>LGA 1200</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Intel H470</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>DIMM</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2933 МГц</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>64 ГБ</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>двухканальный</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>8 каналов (7.1)</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>mATX</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>24+8 pin</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>GIGABYTE</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>B450M H</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SocketAM4</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>AMD B450</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>DIMM</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2933 МГц</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>32 ГБ</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>двухканальный</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>8 каналов (7.1)</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>mATX</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>24+8 pin</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GIGABYTE</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>X670 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>SocketAM5</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>AMD X670</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>DIMM</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5200 МГц</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>128 ГБ</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>двухканальный</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>8 каналов (7.1)</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>ATX</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>24+8+8 pin</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>GIGABYTE</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>SocketAM5</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>AMD X670</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>DIMM</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5200 МГц</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>128 ГБ</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>двухканальный</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>8 каналов (7.1)</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>ATX</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>24+8+8 pin</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -523,14 +3567,499 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Брэнд</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Модель</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Форм-фактор</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Мощность</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Активный PFC</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Производительность (КПД)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Сертифицирован в стандарте</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Наработка на отказ (MTBF)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Отсоединяющиеся кабели</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Питание материнской платы и процессора</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Длина линий питания МП</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Питание видеокарты</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Разъемы SATA</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Разъемы Peripheral (Molex)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GIGABYTE</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AORUS GP-AP850GM</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ATX</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>850 Вт</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>90 %</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>80 PLUS GOLD</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>100000 ч</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>24+2x(4+4) pin</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>650 мм</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>6х(6+2) pin</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>6 шт</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>5 шт</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>COOLER MASTER</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MWE White V2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ATX</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>500 Вт</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>85 %</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>80 PLUS</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>100000 ч</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>24+4+4 pin</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>500 мм</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>2х(6+2) pin</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>6 шт</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>3 шт</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DEEPCOOL</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>PF450</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ATX</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>450 Вт</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>85 %</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>80 PLUS WHITE</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>100000 ч</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>24+4+4 pin</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>550 мм</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>2х(6+2) pin</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>6 шт</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2 шт</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GIGABYTE</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>GP-P450B</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ATX</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>450 Вт</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>85 %</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>80 PLUS BRONZE</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>100000 ч</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>24+4+4 pin</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>550 мм</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>2х(6+2) pin</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>6 шт</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>3 шт</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>GIGABYTE</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>GP-UD750GM</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ATX</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>750 Вт</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>90 %</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>80 PLUS GOLD</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>100000 ч</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>24+2x(4+4) pin</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>610 мм</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>4х(6+2) pin</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>8 шт</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>3 шт</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AEROCOOL</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>AERO WHITE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ATX</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>500 Вт</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>80 %</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>80 PLUS</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>24+4+4 pin</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>500 мм</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>2х(6+2) pin</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>5 шт</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>3 шт</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>